--- a/xlsx/FR/scores_footprint_FR.xlsx
+++ b/xlsx/FR/scores_footprint_FR.xlsx
@@ -17,25 +17,25 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">Transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electricity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
   </si>
 </sst>
 </file>
@@ -386,13 +386,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
+        <v>0.543327502359963</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204944555347326</v>
+        <v>0.641418134527681</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.491737494532152</v>
       </c>
     </row>
     <row r="3">
@@ -400,13 +400,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
+        <v>0.295738182237395</v>
       </c>
       <c r="C3" t="n">
-        <v>0.244554338774632</v>
+        <v>0.187362381404537</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.18528134935949</v>
       </c>
     </row>
     <row r="4">
@@ -414,13 +414,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
+        <v>0.104950140884521</v>
       </c>
       <c r="C4" t="n">
-        <v>0.248694436345023</v>
+        <v>0.111353987010048</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2439</v>
+        <v>0.137979402780673</v>
       </c>
     </row>
     <row r="5">
@@ -428,13 +428,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.215204024594746</v>
+        <v>0.0559841745181211</v>
       </c>
       <c r="C5" t="n">
-        <v>0.301806669533019</v>
+        <v>0.0598654970577333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3137</v>
+        <v>0.185001753327685</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/scores_footprint_FR.xlsx
+++ b/xlsx/FR/scores_footprint_FR.xlsx
@@ -386,13 +386,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.543327502359963</v>
+        <v>0.519575932030351</v>
       </c>
       <c r="C2" t="n">
-        <v>0.641418134527681</v>
+        <v>0.610139427391037</v>
       </c>
       <c r="D2" t="n">
-        <v>0.491737494532152</v>
+        <v>0.449447531470536</v>
       </c>
     </row>
     <row r="3">
@@ -400,13 +400,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.295738182237395</v>
+        <v>0.301927264321815</v>
       </c>
       <c r="C3" t="n">
-        <v>0.187362381404537</v>
+        <v>0.199323030949141</v>
       </c>
       <c r="D3" t="n">
-        <v>0.18528134935949</v>
+        <v>0.182459833469709</v>
       </c>
     </row>
     <row r="4">
@@ -414,13 +414,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.104950140884521</v>
+        <v>0.110820491830717</v>
       </c>
       <c r="C4" t="n">
-        <v>0.111353987010048</v>
+        <v>0.0996344007268335</v>
       </c>
       <c r="D4" t="n">
-        <v>0.137979402780673</v>
+        <v>0.174083651241475</v>
       </c>
     </row>
     <row r="5">
@@ -428,13 +428,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0559841745181211</v>
+        <v>0.0676763118171167</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0598654970577333</v>
+        <v>0.0909031409329885</v>
       </c>
       <c r="D5" t="n">
-        <v>0.185001753327685</v>
+        <v>0.19400898381828</v>
       </c>
     </row>
   </sheetData>
